--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -1977,28 +1977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>995.3488808381094</v>
+        <v>1068.351892319586</v>
       </c>
       <c r="AB2" t="n">
-        <v>1361.880250456192</v>
+        <v>1461.766191430713</v>
       </c>
       <c r="AC2" t="n">
-        <v>1231.904310763589</v>
+        <v>1322.2572777223</v>
       </c>
       <c r="AD2" t="n">
-        <v>995348.8808381094</v>
+        <v>1068351.892319586</v>
       </c>
       <c r="AE2" t="n">
-        <v>1361880.250456193</v>
+        <v>1461766.191430713</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.336441404999812e-06</v>
+        <v>2.472766498893383e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.37044270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1231904.310763589</v>
+        <v>1322257.2777223</v>
       </c>
     </row>
     <row r="3">
@@ -2083,28 +2083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>464.9902246216657</v>
+        <v>501.5771159712512</v>
       </c>
       <c r="AB3" t="n">
-        <v>636.2201392482743</v>
+        <v>686.2799380925061</v>
       </c>
       <c r="AC3" t="n">
-        <v>575.5001820989919</v>
+        <v>620.7823440008992</v>
       </c>
       <c r="AD3" t="n">
-        <v>464990.2246216657</v>
+        <v>501577.1159712512</v>
       </c>
       <c r="AE3" t="n">
-        <v>636220.1392482744</v>
+        <v>686279.9380925061</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.11100601977405e-06</v>
+        <v>3.905913828418289e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.198893229166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>575500.1820989919</v>
+        <v>620782.3440008992</v>
       </c>
     </row>
     <row r="4">
@@ -2189,28 +2189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>359.7103385174354</v>
+        <v>396.2118890124493</v>
       </c>
       <c r="AB4" t="n">
-        <v>492.1715544596925</v>
+        <v>542.1145861817265</v>
       </c>
       <c r="AC4" t="n">
-        <v>445.1993920691738</v>
+        <v>490.3759309391422</v>
       </c>
       <c r="AD4" t="n">
-        <v>359710.3385174354</v>
+        <v>396211.8890124493</v>
       </c>
       <c r="AE4" t="n">
-        <v>492171.5544596925</v>
+        <v>542114.5861817265</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.401561116347992e-06</v>
+        <v>4.44351682859687e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>445199.3920691738</v>
+        <v>490375.9309391422</v>
       </c>
     </row>
     <row r="5">
@@ -2295,28 +2295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>355.678062159517</v>
+        <v>392.1796126545309</v>
       </c>
       <c r="AB5" t="n">
-        <v>486.6544160553105</v>
+        <v>536.5974477773447</v>
       </c>
       <c r="AC5" t="n">
-        <v>440.2088016107537</v>
+        <v>485.3853404807223</v>
       </c>
       <c r="AD5" t="n">
-        <v>355678.062159517</v>
+        <v>392179.6126545309</v>
       </c>
       <c r="AE5" t="n">
-        <v>486654.4160553105</v>
+        <v>536597.4477773446</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.419207296699045e-06</v>
+        <v>4.476166882270954e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.280924479166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>440208.8016107537</v>
+        <v>485385.3404807223</v>
       </c>
     </row>
   </sheetData>
@@ -2592,28 +2592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>682.4627055173735</v>
+        <v>741.2812661809597</v>
       </c>
       <c r="AB2" t="n">
-        <v>933.7755818185135</v>
+        <v>1014.25373141019</v>
       </c>
       <c r="AC2" t="n">
-        <v>844.6573508520141</v>
+        <v>917.4547787984537</v>
       </c>
       <c r="AD2" t="n">
-        <v>682462.7055173735</v>
+        <v>741281.2661809598</v>
       </c>
       <c r="AE2" t="n">
-        <v>933775.5818185135</v>
+        <v>1014253.73141019</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.648623967442511e-06</v>
+        <v>3.142531718036755e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.534505208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>844657.3508520141</v>
+        <v>917454.7787984537</v>
       </c>
     </row>
     <row r="3">
@@ -2698,28 +2698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>352.5354300700195</v>
+        <v>387.9119073227428</v>
       </c>
       <c r="AB3" t="n">
-        <v>482.3545281873172</v>
+        <v>530.7581850645209</v>
       </c>
       <c r="AC3" t="n">
-        <v>436.319289005951</v>
+        <v>480.1033688057535</v>
       </c>
       <c r="AD3" t="n">
-        <v>352535.4300700194</v>
+        <v>387911.9073227427</v>
       </c>
       <c r="AE3" t="n">
-        <v>482354.5281873172</v>
+        <v>530758.1850645209</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.384994529735657e-06</v>
+        <v>4.546167655602647e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.591796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>436319.289005951</v>
+        <v>480103.3688057535</v>
       </c>
     </row>
     <row r="4">
@@ -2804,28 +2804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>336.0632558172686</v>
+        <v>371.2691408693998</v>
       </c>
       <c r="AB4" t="n">
-        <v>459.8165726736635</v>
+        <v>507.9868177760201</v>
       </c>
       <c r="AC4" t="n">
-        <v>415.9323243343013</v>
+        <v>459.5052688514527</v>
       </c>
       <c r="AD4" t="n">
-        <v>336063.2558172686</v>
+        <v>371269.1408693998</v>
       </c>
       <c r="AE4" t="n">
-        <v>459816.5726736635</v>
+        <v>507986.8177760202</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.45221828516011e-06</v>
+        <v>4.674306508245073e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.4111328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>415932.3243343012</v>
+        <v>459505.2688514527</v>
       </c>
     </row>
   </sheetData>
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>311.8437357419253</v>
+        <v>353.5269135060967</v>
       </c>
       <c r="AB2" t="n">
-        <v>426.6783568167634</v>
+        <v>483.7111195657202</v>
       </c>
       <c r="AC2" t="n">
-        <v>385.9567732890056</v>
+        <v>437.5464092071873</v>
       </c>
       <c r="AD2" t="n">
-        <v>311843.7357419254</v>
+        <v>353526.9135060966</v>
       </c>
       <c r="AE2" t="n">
-        <v>426678.3568167633</v>
+        <v>483711.1195657202</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.397902535630723e-06</v>
+        <v>5.106904862763774e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.314453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>385956.7732890056</v>
+        <v>437546.4092071872</v>
       </c>
     </row>
   </sheetData>
@@ -3398,28 +3398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>361.0093341128179</v>
+        <v>404.7259260970271</v>
       </c>
       <c r="AB2" t="n">
-        <v>493.9488975409359</v>
+        <v>553.7638673336527</v>
       </c>
       <c r="AC2" t="n">
-        <v>446.8071080212601</v>
+        <v>500.9134210477973</v>
       </c>
       <c r="AD2" t="n">
-        <v>361009.3341128179</v>
+        <v>404725.9260970271</v>
       </c>
       <c r="AE2" t="n">
-        <v>493948.897540936</v>
+        <v>553763.8673336527</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.289873039298329e-06</v>
+        <v>4.649233951387836e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.3291015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>446807.1080212601</v>
+        <v>500913.4210477973</v>
       </c>
     </row>
     <row r="3">
@@ -3504,28 +3504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>309.2770921301772</v>
+        <v>353.0789354604068</v>
       </c>
       <c r="AB3" t="n">
-        <v>423.1665617948448</v>
+        <v>483.0981762402108</v>
       </c>
       <c r="AC3" t="n">
-        <v>382.7801390551436</v>
+        <v>436.9919643323931</v>
       </c>
       <c r="AD3" t="n">
-        <v>309277.0921301771</v>
+        <v>353078.9354604068</v>
       </c>
       <c r="AE3" t="n">
-        <v>423166.5617948447</v>
+        <v>483098.1762402108</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.462987399827029e-06</v>
+        <v>5.000715954376723e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.813151041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>382780.1390551436</v>
+        <v>436991.9643323931</v>
       </c>
     </row>
   </sheetData>
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>313.5429780663425</v>
+        <v>363.6047378421667</v>
       </c>
       <c r="AB2" t="n">
-        <v>429.0033351303115</v>
+        <v>497.5000434245625</v>
       </c>
       <c r="AC2" t="n">
-        <v>388.0598589354362</v>
+        <v>450.0193375258178</v>
       </c>
       <c r="AD2" t="n">
-        <v>313542.9780663425</v>
+        <v>363604.7378421667</v>
       </c>
       <c r="AE2" t="n">
-        <v>429003.3351303115</v>
+        <v>497500.0434245625</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.279315687103894e-06</v>
+        <v>5.07559083002942e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.9931640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>388059.8589354362</v>
+        <v>450019.3375258178</v>
       </c>
     </row>
   </sheetData>
@@ -4098,28 +4098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>743.8074997347642</v>
+        <v>814.900199991172</v>
       </c>
       <c r="AB2" t="n">
-        <v>1017.710235608064</v>
+        <v>1114.982404487462</v>
       </c>
       <c r="AC2" t="n">
-        <v>920.5813990869167</v>
+        <v>1008.570048690811</v>
       </c>
       <c r="AD2" t="n">
-        <v>743807.4997347642</v>
+        <v>814900.1999911721</v>
       </c>
       <c r="AE2" t="n">
-        <v>1017710.235608064</v>
+        <v>1114982.404487462</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.566620297988191e-06</v>
+        <v>2.96210874196314e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.944661458333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>920581.3990869167</v>
+        <v>1008570.048690811</v>
       </c>
     </row>
     <row r="3">
@@ -4204,28 +4204,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>376.01672156808</v>
+        <v>423.4403020238757</v>
       </c>
       <c r="AB3" t="n">
-        <v>514.4826671364328</v>
+        <v>579.3697020967635</v>
       </c>
       <c r="AC3" t="n">
-        <v>465.3811634658893</v>
+        <v>524.0754708791316</v>
       </c>
       <c r="AD3" t="n">
-        <v>376016.72156808</v>
+        <v>423440.3020238758</v>
       </c>
       <c r="AE3" t="n">
-        <v>514482.6671364329</v>
+        <v>579369.7020967635</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.315328306228163e-06</v>
+        <v>4.37773864235024e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.728515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>465381.1634658893</v>
+        <v>524075.4708791316</v>
       </c>
     </row>
     <row r="4">
@@ -4310,28 +4310,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>339.7972700881441</v>
+        <v>375.3437097248992</v>
       </c>
       <c r="AB4" t="n">
-        <v>464.9256157321587</v>
+        <v>513.5618226414058</v>
       </c>
       <c r="AC4" t="n">
-        <v>420.5537674938806</v>
+        <v>464.5482030770543</v>
       </c>
       <c r="AD4" t="n">
-        <v>339797.2700881441</v>
+        <v>375343.7097248991</v>
       </c>
       <c r="AE4" t="n">
-        <v>464925.6157321588</v>
+        <v>513561.8226414058</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.446940874795021e-06</v>
+        <v>4.626586905330586e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.3671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>420553.7674938806</v>
+        <v>464548.2030770543</v>
       </c>
     </row>
   </sheetData>
@@ -4607,28 +4607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>329.8897683369746</v>
+        <v>378.8023724063968</v>
       </c>
       <c r="AB2" t="n">
-        <v>451.3697347480794</v>
+        <v>518.2941175076595</v>
       </c>
       <c r="AC2" t="n">
-        <v>408.2916407651234</v>
+        <v>468.8288543630904</v>
       </c>
       <c r="AD2" t="n">
-        <v>329889.7683369746</v>
+        <v>378802.3724063968</v>
       </c>
       <c r="AE2" t="n">
-        <v>451369.7347480794</v>
+        <v>518294.1175076595</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.169489010375083e-06</v>
+        <v>4.973698365737234e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.59375</v>
       </c>
       <c r="AH2" t="n">
-        <v>408291.6407651234</v>
+        <v>468828.8543630904</v>
       </c>
     </row>
   </sheetData>
@@ -4904,28 +4904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>506.3522709332204</v>
+        <v>551.8481822538278</v>
       </c>
       <c r="AB2" t="n">
-        <v>692.8135157764415</v>
+        <v>755.0630287832471</v>
       </c>
       <c r="AC2" t="n">
-        <v>626.6923662006136</v>
+        <v>683.0008730537899</v>
       </c>
       <c r="AD2" t="n">
-        <v>506352.2709332205</v>
+        <v>551848.1822538278</v>
       </c>
       <c r="AE2" t="n">
-        <v>692813.5157764414</v>
+        <v>755063.0287832471</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.937027560901708e-06</v>
+        <v>3.79654724977395e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.361002604166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>626692.3662006136</v>
+        <v>683000.8730537898</v>
       </c>
     </row>
     <row r="3">
@@ -5010,28 +5010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>321.0506332239371</v>
+        <v>355.3218460784797</v>
       </c>
       <c r="AB3" t="n">
-        <v>439.2756401313021</v>
+        <v>486.167025498091</v>
       </c>
       <c r="AC3" t="n">
-        <v>397.3517895644029</v>
+        <v>439.7679269242582</v>
       </c>
       <c r="AD3" t="n">
-        <v>321050.6332239371</v>
+        <v>355321.8460784797</v>
       </c>
       <c r="AE3" t="n">
-        <v>439275.6401313021</v>
+        <v>486167.025498091</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.47012063276148e-06</v>
+        <v>4.841402303307937e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.5576171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>397351.7895644029</v>
+        <v>439767.9269242582</v>
       </c>
     </row>
   </sheetData>
@@ -5307,28 +5307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>622.4039663423699</v>
+        <v>668.9875649149392</v>
       </c>
       <c r="AB2" t="n">
-        <v>851.6005652747008</v>
+        <v>915.3382999650159</v>
       </c>
       <c r="AC2" t="n">
-        <v>770.3250025537828</v>
+        <v>827.9796973017266</v>
       </c>
       <c r="AD2" t="n">
-        <v>622403.9663423699</v>
+        <v>668987.5649149392</v>
       </c>
       <c r="AE2" t="n">
-        <v>851600.5652747008</v>
+        <v>915338.299965016</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.740628327004117e-06</v>
+        <v>3.346711447620708e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.117838541666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>770325.0025537829</v>
+        <v>827979.6973017266</v>
       </c>
     </row>
     <row r="3">
@@ -5413,28 +5413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>334.3543274585168</v>
+        <v>369.3773001111021</v>
       </c>
       <c r="AB3" t="n">
-        <v>457.478341500621</v>
+        <v>505.3983177883936</v>
       </c>
       <c r="AC3" t="n">
-        <v>413.8172506626858</v>
+        <v>457.1638116696626</v>
       </c>
       <c r="AD3" t="n">
-        <v>334354.3274585168</v>
+        <v>369377.3001111021</v>
       </c>
       <c r="AE3" t="n">
-        <v>457478.3415006209</v>
+        <v>505398.3177883936</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.441384308752862e-06</v>
+        <v>4.694057132924877e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.500651041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>413817.2506626858</v>
+        <v>457163.8116696626</v>
       </c>
     </row>
     <row r="4">
@@ -5519,28 +5519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>331.0551589724886</v>
+        <v>365.9075394244817</v>
       </c>
       <c r="AB4" t="n">
-        <v>452.9642736289959</v>
+        <v>500.6508381419217</v>
       </c>
       <c r="AC4" t="n">
-        <v>409.7339990931947</v>
+        <v>452.8694248175204</v>
       </c>
       <c r="AD4" t="n">
-        <v>331055.1589724886</v>
+        <v>365907.5394244817</v>
       </c>
       <c r="AE4" t="n">
-        <v>452964.2736289959</v>
+        <v>500650.8381419217</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.460299942599983e-06</v>
+        <v>4.730426280406302e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.4501953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>409733.9990931947</v>
+        <v>452869.4248175204</v>
       </c>
     </row>
   </sheetData>
@@ -5816,28 +5816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>901.0032591503514</v>
+        <v>973.475050931997</v>
       </c>
       <c r="AB2" t="n">
-        <v>1232.792408627929</v>
+        <v>1331.951511373381</v>
       </c>
       <c r="AC2" t="n">
-        <v>1115.136431383492</v>
+        <v>1204.831928533592</v>
       </c>
       <c r="AD2" t="n">
-        <v>901003.2591503514</v>
+        <v>973475.050931997</v>
       </c>
       <c r="AE2" t="n">
-        <v>1232792.408627929</v>
+        <v>1331951.511373381</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.408674478417081e-06</v>
+        <v>2.624253710368921e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.8740234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1115136.431383491</v>
+        <v>1204831.928533592</v>
       </c>
     </row>
     <row r="3">
@@ -5922,28 +5922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>437.5221531098512</v>
+        <v>473.8008089365109</v>
       </c>
       <c r="AB3" t="n">
-        <v>598.6371120000197</v>
+        <v>648.2751694033927</v>
       </c>
       <c r="AC3" t="n">
-        <v>541.5040262232006</v>
+        <v>586.4046970954469</v>
       </c>
       <c r="AD3" t="n">
-        <v>437522.1531098512</v>
+        <v>473800.8089365109</v>
       </c>
       <c r="AE3" t="n">
-        <v>598637.1120000196</v>
+        <v>648275.1694033927</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.179455075573407e-06</v>
+        <v>4.060159501918993e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.027994791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>541504.0262232006</v>
+        <v>586404.6970954469</v>
       </c>
     </row>
     <row r="4">
@@ -6028,28 +6028,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>349.5622484720395</v>
+        <v>385.7555634441275</v>
       </c>
       <c r="AB4" t="n">
-        <v>478.2864899574462</v>
+        <v>527.8077802386216</v>
       </c>
       <c r="AC4" t="n">
-        <v>432.6394986352115</v>
+        <v>477.434546475519</v>
       </c>
       <c r="AD4" t="n">
-        <v>349562.2484720395</v>
+        <v>385755.5634441275</v>
       </c>
       <c r="AE4" t="n">
-        <v>478286.4899574462</v>
+        <v>527807.7802386216</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.428758836485143e-06</v>
+        <v>4.524593499698742e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.306966145833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>432639.4986352115</v>
+        <v>477434.546475519</v>
       </c>
     </row>
     <row r="5">
@@ -6134,28 +6134,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>351.4924898849334</v>
+        <v>387.6858048570215</v>
       </c>
       <c r="AB5" t="n">
-        <v>480.9275314148089</v>
+        <v>530.4488216959843</v>
       </c>
       <c r="AC5" t="n">
-        <v>435.0284828026085</v>
+        <v>479.8235306429159</v>
       </c>
       <c r="AD5" t="n">
-        <v>351492.4898849335</v>
+        <v>387685.8048570215</v>
       </c>
       <c r="AE5" t="n">
-        <v>480927.5314148089</v>
+        <v>530448.8216959843</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.426217801549462e-06</v>
+        <v>4.519859744341983e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.3134765625</v>
       </c>
       <c r="AH5" t="n">
-        <v>435028.4828026085</v>
+        <v>479823.5306429159</v>
       </c>
     </row>
   </sheetData>
@@ -6431,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>402.4383383098541</v>
+        <v>446.9202722662903</v>
       </c>
       <c r="AB2" t="n">
-        <v>550.6338888019922</v>
+        <v>611.4960332456146</v>
       </c>
       <c r="AC2" t="n">
-        <v>498.0821632742459</v>
+        <v>553.1357100727254</v>
       </c>
       <c r="AD2" t="n">
-        <v>402438.3383098542</v>
+        <v>446920.2722662903</v>
       </c>
       <c r="AE2" t="n">
-        <v>550633.8888019922</v>
+        <v>611496.0332456146</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.164897153330958e-06</v>
+        <v>4.339530617621777e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.654622395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>498082.1632742459</v>
+        <v>553135.7100727254</v>
       </c>
     </row>
     <row r="3">
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>312.962420242802</v>
+        <v>357.3590133446666</v>
       </c>
       <c r="AB3" t="n">
-        <v>428.2089903037398</v>
+        <v>488.9543676251647</v>
       </c>
       <c r="AC3" t="n">
-        <v>387.3413252642426</v>
+        <v>442.2892490307832</v>
       </c>
       <c r="AD3" t="n">
-        <v>312962.420242802</v>
+        <v>357359.0133446666</v>
       </c>
       <c r="AE3" t="n">
-        <v>428208.9903037398</v>
+        <v>488954.3676251647</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.467593820633452e-06</v>
+        <v>4.946285286586153e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.715494791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>387341.3252642427</v>
+        <v>442289.2490307832</v>
       </c>
     </row>
   </sheetData>
@@ -6834,28 +6834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>314.3627350013888</v>
+        <v>346.298571530556</v>
       </c>
       <c r="AB2" t="n">
-        <v>430.1249627339654</v>
+        <v>473.8209831828437</v>
       </c>
       <c r="AC2" t="n">
-        <v>389.0744399748117</v>
+        <v>428.600173559799</v>
       </c>
       <c r="AD2" t="n">
-        <v>314362.7350013888</v>
+        <v>346298.571530556</v>
       </c>
       <c r="AE2" t="n">
-        <v>430124.9627339654</v>
+        <v>473820.9831828438</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.425115715283815e-06</v>
+        <v>5.073493738058904e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.117513020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>389074.4399748117</v>
+        <v>428600.173559799</v>
       </c>
     </row>
     <row r="3">
@@ -6940,28 +6940,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>315.4510070964402</v>
+        <v>347.3868436256073</v>
       </c>
       <c r="AB3" t="n">
-        <v>431.6139846255909</v>
+        <v>475.3100050744694</v>
       </c>
       <c r="AC3" t="n">
-        <v>390.4213517069559</v>
+        <v>429.9470852919432</v>
       </c>
       <c r="AD3" t="n">
-        <v>315451.0070964402</v>
+        <v>347386.8436256073</v>
       </c>
       <c r="AE3" t="n">
-        <v>431613.984625591</v>
+        <v>475310.0050744694</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.428827735315081e-06</v>
+        <v>5.081259516106313e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.107747395833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>390421.3517069559</v>
+        <v>429947.0852919432</v>
       </c>
     </row>
   </sheetData>
@@ -11690,28 +11690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>311.1260789042919</v>
+        <v>352.187619715868</v>
       </c>
       <c r="AB2" t="n">
-        <v>425.6964270707281</v>
+        <v>481.8786387164572</v>
       </c>
       <c r="AC2" t="n">
-        <v>385.0685575397849</v>
+        <v>435.888817758275</v>
       </c>
       <c r="AD2" t="n">
-        <v>311126.078904292</v>
+        <v>352187.619715868</v>
       </c>
       <c r="AE2" t="n">
-        <v>425696.4270707282</v>
+        <v>481878.6387164572</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.353428322818686e-06</v>
+        <v>5.116013738503867e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.587890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>385068.5575397849</v>
+        <v>435888.817758275</v>
       </c>
     </row>
   </sheetData>
@@ -11987,28 +11987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>354.0579928503435</v>
+        <v>401.6198795555463</v>
       </c>
       <c r="AB2" t="n">
-        <v>484.4377657540857</v>
+        <v>549.5140374264964</v>
       </c>
       <c r="AC2" t="n">
-        <v>438.2037053031895</v>
+        <v>497.0691889423062</v>
       </c>
       <c r="AD2" t="n">
-        <v>354057.9928503435</v>
+        <v>401619.8795555463</v>
       </c>
       <c r="AE2" t="n">
-        <v>484437.7657540857</v>
+        <v>549514.0374264964</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.987220794553526e-06</v>
+        <v>4.726658242319293e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.645182291666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>438203.7053031895</v>
+        <v>497069.1889423062</v>
       </c>
     </row>
   </sheetData>
@@ -12284,28 +12284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>556.0655328820428</v>
+        <v>613.5964735332391</v>
       </c>
       <c r="AB2" t="n">
-        <v>760.8333939691495</v>
+        <v>839.5497650540884</v>
       </c>
       <c r="AC2" t="n">
-        <v>688.2205226851081</v>
+        <v>759.4243137928214</v>
       </c>
       <c r="AD2" t="n">
-        <v>556065.5328820428</v>
+        <v>613596.4735332391</v>
       </c>
       <c r="AE2" t="n">
-        <v>760833.3939691494</v>
+        <v>839549.7650540884</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.836786108791345e-06</v>
+        <v>3.56442707157802e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.7255859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>688220.5226851081</v>
+        <v>759424.3137928214</v>
       </c>
     </row>
     <row r="3">
@@ -12390,28 +12390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>325.4178092293621</v>
+        <v>360.0729189873944</v>
       </c>
       <c r="AB3" t="n">
-        <v>445.2510030081321</v>
+        <v>492.6676530546119</v>
       </c>
       <c r="AC3" t="n">
-        <v>402.7568721947429</v>
+        <v>445.6481437104729</v>
       </c>
       <c r="AD3" t="n">
-        <v>325417.8092293621</v>
+        <v>360072.9189873944</v>
       </c>
       <c r="AE3" t="n">
-        <v>445251.0030081321</v>
+        <v>492667.6530546119</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.465559393406011e-06</v>
+        <v>4.784610797292456e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.500651041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>402756.8721947428</v>
+        <v>445648.1437104729</v>
       </c>
     </row>
     <row r="4">
@@ -12496,28 +12496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>326.4521502360205</v>
+        <v>360.9366677934606</v>
       </c>
       <c r="AB4" t="n">
-        <v>446.6662340053469</v>
+        <v>493.8494722769797</v>
       </c>
       <c r="AC4" t="n">
-        <v>404.0370355318726</v>
+        <v>446.7171717649515</v>
       </c>
       <c r="AD4" t="n">
-        <v>326452.1502360206</v>
+        <v>360936.6677934607</v>
       </c>
       <c r="AE4" t="n">
-        <v>446666.2340053469</v>
+        <v>493849.4722769797</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.466248729818274e-06</v>
+        <v>4.785948508503107e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.4990234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>404037.0355318726</v>
+        <v>446717.1717649515</v>
       </c>
     </row>
   </sheetData>
@@ -12793,28 +12793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>825.8626302662749</v>
+        <v>885.7115324408767</v>
       </c>
       <c r="AB2" t="n">
-        <v>1129.981685218148</v>
+        <v>1211.869593520656</v>
       </c>
       <c r="AC2" t="n">
-        <v>1022.137819120183</v>
+        <v>1096.210460384701</v>
       </c>
       <c r="AD2" t="n">
-        <v>825862.6302662749</v>
+        <v>885711.5324408767</v>
       </c>
       <c r="AE2" t="n">
-        <v>1129981.685218148</v>
+        <v>1211869.593520656</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.484920319179156e-06</v>
+        <v>2.786292947954716e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.400390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1022137.819120183</v>
+        <v>1096210.460384701</v>
       </c>
     </row>
     <row r="3">
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>400.0708537130988</v>
+        <v>447.932835675025</v>
       </c>
       <c r="AB3" t="n">
-        <v>547.3945919306625</v>
+        <v>612.8814671725903</v>
       </c>
       <c r="AC3" t="n">
-        <v>495.1520203499342</v>
+        <v>554.3889201301791</v>
       </c>
       <c r="AD3" t="n">
-        <v>400070.8537130987</v>
+        <v>447932.835675025</v>
       </c>
       <c r="AE3" t="n">
-        <v>547394.5919306625</v>
+        <v>612881.4671725903</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.2471186834204e-06</v>
+        <v>4.216476035759693e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.873372395833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>495152.0203499342</v>
+        <v>554388.9201301791</v>
       </c>
     </row>
     <row r="4">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>345.3088923011914</v>
+        <v>381.1841330675442</v>
       </c>
       <c r="AB4" t="n">
-        <v>472.466860399661</v>
+        <v>521.5529475201058</v>
       </c>
       <c r="AC4" t="n">
-        <v>427.3752863545198</v>
+        <v>471.7766662129455</v>
       </c>
       <c r="AD4" t="n">
-        <v>345308.8923011914</v>
+        <v>381184.1330675442</v>
       </c>
       <c r="AE4" t="n">
-        <v>472466.8603996609</v>
+        <v>521552.9475201059</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.434916313255238e-06</v>
+        <v>4.568858049052279e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.3427734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>427375.2863545198</v>
+        <v>471776.6662129455</v>
       </c>
     </row>
     <row r="5">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>346.2645148989017</v>
+        <v>382.1397556652545</v>
       </c>
       <c r="AB5" t="n">
-        <v>473.7743853969417</v>
+        <v>522.8604725173866</v>
       </c>
       <c r="AC5" t="n">
-        <v>428.558023001183</v>
+        <v>472.9594028596086</v>
       </c>
       <c r="AD5" t="n">
-        <v>346264.5148989017</v>
+        <v>382139.7556652545</v>
       </c>
       <c r="AE5" t="n">
-        <v>473774.3853969417</v>
+        <v>522860.4725173865</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.435770370187281e-06</v>
+        <v>4.570460594842897e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.341145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>428558.0230011829</v>
+        <v>472959.4028596086</v>
       </c>
     </row>
   </sheetData>
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>409.4659389112365</v>
+        <v>473.416607944727</v>
       </c>
       <c r="AB2" t="n">
-        <v>560.2493619806609</v>
+        <v>647.7494886566826</v>
       </c>
       <c r="AC2" t="n">
-        <v>506.779949188144</v>
+        <v>585.9291865814054</v>
       </c>
       <c r="AD2" t="n">
-        <v>409465.9389112365</v>
+        <v>473416.6079447271</v>
       </c>
       <c r="AE2" t="n">
-        <v>560249.3619806608</v>
+        <v>647749.4886566827</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.6618492764724e-06</v>
+        <v>4.156158923494182e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.94173177083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>506779.9491881439</v>
+        <v>585929.1865814053</v>
       </c>
     </row>
   </sheetData>
@@ -13705,28 +13705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>326.6725047278557</v>
+        <v>359.1144351594356</v>
       </c>
       <c r="AB2" t="n">
-        <v>446.9677327424299</v>
+        <v>491.3562131958764</v>
       </c>
       <c r="AC2" t="n">
-        <v>404.3097596526445</v>
+        <v>444.4618658312377</v>
       </c>
       <c r="AD2" t="n">
-        <v>326672.5047278557</v>
+        <v>359114.4351594356</v>
       </c>
       <c r="AE2" t="n">
-        <v>446967.7327424299</v>
+        <v>491356.2131958764</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.402831634877046e-06</v>
+        <v>4.948111438347734e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.078450520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>404309.7596526445</v>
+        <v>444461.8658312377</v>
       </c>
     </row>
     <row r="3">
@@ -13811,28 +13811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>306.5823888889564</v>
+        <v>349.7528359317565</v>
       </c>
       <c r="AB3" t="n">
-        <v>419.4795499382899</v>
+        <v>478.5472601279563</v>
       </c>
       <c r="AC3" t="n">
-        <v>379.4450104354248</v>
+        <v>432.8753812666413</v>
       </c>
       <c r="AD3" t="n">
-        <v>306582.3888889564</v>
+        <v>349752.8359317565</v>
       </c>
       <c r="AE3" t="n">
-        <v>419479.5499382899</v>
+        <v>478547.2601279563</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.449234890319846e-06</v>
+        <v>5.043668894683969e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.944986979166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>379445.0104354247</v>
+        <v>432875.3812666413</v>
       </c>
     </row>
   </sheetData>
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>458.7318826404116</v>
+        <v>503.6918606094852</v>
       </c>
       <c r="AB2" t="n">
-        <v>627.6571996509604</v>
+        <v>689.173425002487</v>
       </c>
       <c r="AC2" t="n">
-        <v>567.7544774386844</v>
+        <v>623.3996805812258</v>
       </c>
       <c r="AD2" t="n">
-        <v>458731.8826404116</v>
+        <v>503691.8606094852</v>
       </c>
       <c r="AE2" t="n">
-        <v>627657.1996509604</v>
+        <v>689173.4250024869</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.046661591119415e-06</v>
+        <v>4.054813426521947e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.001302083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>567754.4774386843</v>
+        <v>623399.6805812258</v>
       </c>
     </row>
     <row r="3">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>316.5967625834418</v>
+        <v>361.5566510439645</v>
       </c>
       <c r="AB3" t="n">
-        <v>433.1816578300713</v>
+        <v>494.6977607120494</v>
       </c>
       <c r="AC3" t="n">
-        <v>391.8394083810438</v>
+        <v>447.4845007423586</v>
       </c>
       <c r="AD3" t="n">
-        <v>316596.7625834418</v>
+        <v>361556.6510439644</v>
       </c>
       <c r="AE3" t="n">
-        <v>433181.6578300713</v>
+        <v>494697.7607120494</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.47330097884539e-06</v>
+        <v>4.900064602945401e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.62109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>391839.4083810438</v>
+        <v>447484.5007423586</v>
       </c>
     </row>
   </sheetData>
